--- a/RSF_Report_2025/R_calc_RSF_2025/Data/sites_info_KolaBay_with_predictors.xlsx
+++ b/RSF_Report_2025/R_calc_RSF_2025/Data/sites_info_KolaBay_with_predictors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="22188" windowHeight="8604"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>Site_code</t>
   </si>
@@ -83,6 +83,12 @@
     <t>N_BTN</t>
   </si>
   <si>
+    <t>Distance_to_TU</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
     <t>Ab2</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>August</t>
   </si>
   <si>
+    <t>west</t>
+  </si>
+  <si>
     <t>Bk6</t>
   </si>
   <si>
@@ -108,6 +117,9 @@
   </si>
   <si>
     <t>Chalm-Pushka</t>
+  </si>
+  <si>
+    <t>east</t>
   </si>
   <si>
     <t>Ch21</t>
@@ -824,12 +836,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1178,19 +1193,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.5740740740741" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.8888888888889"/>
+    <col min="2" max="2" width="23.5740740740741" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="19" max="19" width="15.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,22 +1261,28 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>45882</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>68.98219</v>
@@ -1298,22 +1320,28 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>11.5</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>45804</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>69.075194</v>
@@ -1328,7 +1356,7 @@
         <v>0.79167</v>
       </c>
       <c r="J3">
-        <v>1.22328847042692</v>
+        <v>1.36018918988248</v>
       </c>
       <c r="K3">
         <v>-0.209517624719836</v>
@@ -1354,22 +1382,28 @@
       <c r="R3">
         <v>3</v>
       </c>
+      <c r="S3">
+        <v>21.2692307692308</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>45804</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>69.07507</v>
@@ -1384,7 +1418,7 @@
         <v>0.875</v>
       </c>
       <c r="J4">
-        <v>1.22328847042692</v>
+        <v>1.36018918988248</v>
       </c>
       <c r="K4">
         <v>-0.354412770098218</v>
@@ -1410,22 +1444,28 @@
       <c r="R4">
         <v>1</v>
       </c>
+      <c r="S4">
+        <v>21.3461538461538</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>45523</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>2024</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>69.056044</v>
@@ -1440,7 +1480,7 @@
         <v>0.08333</v>
       </c>
       <c r="J5">
-        <v>0.53039380809405</v>
+        <v>0.553820952712536</v>
       </c>
       <c r="K5">
         <v>-0.0496619174764159</v>
@@ -1466,22 +1506,28 @@
       <c r="R5">
         <v>5</v>
       </c>
+      <c r="S5">
+        <v>22.5384615384615</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
         <v>45523</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>2024</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>69.056059</v>
@@ -1496,7 +1542,7 @@
         <v>0.16667</v>
       </c>
       <c r="J6">
-        <v>0.53039380809405</v>
+        <v>0.553820952712536</v>
       </c>
       <c r="K6">
         <v>0.0745625821868812</v>
@@ -1522,22 +1568,28 @@
       <c r="R6">
         <v>0</v>
       </c>
+      <c r="S6">
+        <v>22.6153846153846</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>45480</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>2024</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>69.058375</v>
@@ -1578,22 +1630,28 @@
       <c r="R7">
         <v>4</v>
       </c>
+      <c r="S7">
+        <v>22.4615384615385</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>45880</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>69.056088</v>
@@ -1605,7 +1663,7 @@
         <v>0.08333</v>
       </c>
       <c r="J8">
-        <v>0.55958427097787</v>
+        <v>0.555508881460796</v>
       </c>
       <c r="K8">
         <v>0.137600135940568</v>
@@ -1631,22 +1689,28 @@
       <c r="R8">
         <v>4</v>
       </c>
+      <c r="S8">
+        <v>22.5384615384615</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>45880</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>69.058122</v>
@@ -1658,7 +1722,7 @@
         <v>0.25</v>
       </c>
       <c r="J9">
-        <v>0.55958427097787</v>
+        <v>0.555508881460796</v>
       </c>
       <c r="K9">
         <v>0.0484264988164422</v>
@@ -1684,22 +1748,28 @@
       <c r="R9">
         <v>1</v>
       </c>
+      <c r="S9">
+        <v>22.6923076923077</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>45524</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>2024</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>69.061074</v>
@@ -1740,22 +1810,28 @@
       <c r="R10">
         <v>0</v>
       </c>
+      <c r="S10">
+        <v>23.6153846153846</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>45881</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>69.06146919</v>
@@ -1796,22 +1872,28 @@
       <c r="R11">
         <v>1</v>
       </c>
+      <c r="S11">
+        <v>17.7307692307692</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>45878</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>69.073542</v>
@@ -1852,22 +1934,28 @@
       <c r="R12">
         <v>4</v>
       </c>
+      <c r="S12">
+        <v>19.6538461538462</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2">
         <v>45881</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>69.04287</v>
@@ -1905,22 +1993,28 @@
       <c r="R13">
         <v>0</v>
       </c>
+      <c r="S13">
+        <v>16.6538461538462</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>45878</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>69.073932</v>
@@ -1961,22 +2055,28 @@
       <c r="R14">
         <v>4</v>
       </c>
+      <c r="S14">
+        <v>24.8076923076923</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>45883</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>69.054237</v>
@@ -2017,22 +2117,28 @@
       <c r="R15">
         <v>8</v>
       </c>
+      <c r="S15">
+        <v>19.4230769230769</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>45806</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>69.113243</v>
@@ -2073,22 +2179,28 @@
       <c r="R16">
         <v>0</v>
       </c>
+      <c r="S16">
+        <v>28.3461538461538</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>45481</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>69.053491</v>
@@ -2126,22 +2238,28 @@
       <c r="R17">
         <v>0</v>
       </c>
+      <c r="S17">
+        <v>21.5</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>45526</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>2024</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>69.053509</v>
@@ -2182,22 +2300,28 @@
       <c r="R18">
         <v>2</v>
       </c>
+      <c r="S18">
+        <v>21.5769230769231</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>45805</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>69.053893</v>
@@ -2238,22 +2362,28 @@
       <c r="R19">
         <v>2</v>
       </c>
+      <c r="S19">
+        <v>21.5769230769231</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
         <v>45882</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>69.082449</v>
@@ -2294,22 +2424,28 @@
       <c r="R20">
         <v>6</v>
       </c>
+      <c r="S20">
+        <v>28.8076923076923</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2">
         <v>45879</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>69.075567</v>
@@ -2350,22 +2486,28 @@
       <c r="R21">
         <v>1</v>
       </c>
+      <c r="S21">
+        <v>26.6538461538462</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2">
         <v>45807</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>68.996036</v>
@@ -2405,6 +2547,12 @@
       </c>
       <c r="R22">
         <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.7307692307692</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
